--- a/DataFeeds/G20CPI.xlsx
+++ b/DataFeeds/G20CPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE53D7-34F8-4830-89E8-6ACF5636910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23014B57-D4AE-40D2-85A0-0B6D7E0336DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2445" windowWidth="24240" windowHeight="13140" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
   </bookViews>
@@ -34,57 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>G20CPI</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Aug-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Sep-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Oct-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nov-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Dec-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jan-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Feb-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mar-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Apr-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  May-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jun-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jul-2022</t>
   </si>
 </sst>
 </file>
@@ -149,11 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90752A97-661D-4E4E-BE3E-871DC26D7446}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,122 +441,345 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>43466</v>
       </c>
       <c r="B2" s="1">
         <v>3.5743849999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>43497</v>
       </c>
       <c r="B3" s="1">
-        <v>2.7072569999999998</v>
+        <v>3.5743849999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>43525</v>
       </c>
       <c r="B4" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.5743849999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.7072569999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B26" s="1">
         <v>4.2904499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4.2904499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.2904499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.2904499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.2904499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.2904499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.2904499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B33" s="1">
         <v>4.4705209999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B34" s="1">
         <v>4.6142409999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B35" s="1">
         <v>5.2248419999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B36" s="1">
         <v>5.85168</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B37" s="1">
         <v>6.145003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B38" s="1">
         <v>6.4861240000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B39" s="1">
         <v>6.8016949999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B40" s="1">
         <v>7.9005089999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B41" s="1">
         <v>8.5182369999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B42" s="1">
         <v>8.8554359999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B43" s="1">
         <v>9.2493960000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44743</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFeeds/G20CPI.xlsx
+++ b/DataFeeds/G20CPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23014B57-D4AE-40D2-85A0-0B6D7E0336DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426A389-6281-4E59-9511-814DF7ED4DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2445" windowWidth="24240" windowHeight="13140" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -59,6 +59,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -72,32 +73,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F8FF"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -106,10 +92,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,364 +410,2196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90752A97-661D-4E4E-BE3E-871DC26D7446}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B44"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
+        <v>36526</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>36557</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>36586</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>36617</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>36647</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>36678</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>36708</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>36739</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>36770</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>36800</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>36831</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>36861</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>36892</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>36923</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>36951</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>36982</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>37012</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>37043</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>37073</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>37104</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>37135</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>37165</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>37196</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>37226</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>37257</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>37288</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>37316</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>37347</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>37377</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>37408</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>37438</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>37469</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>37500</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>37530</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>37561</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>37591</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>37622</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>37653</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>37681</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>37712</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>37742</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>37773</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>37803</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>37834</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>37865</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>37895</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>37926</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>37956</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>37987</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>38018</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>38047</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>38078</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>38108</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>38139</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>38169</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>38200</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>38231</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>38261</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>38292</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>38322</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>38353</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>38384</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>38412</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>38443</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>38473</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>38504</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>38534</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>38565</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>38596</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>38626</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>38657</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>38687</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B74" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>38749</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>38777</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>38838</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>38869</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>38930</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>38961</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>39052</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>39114</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>39142</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>39203</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>39234</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>39295</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>39326</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>39387</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>39417</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B98" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>39479</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>39508</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>39569</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>39600</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>39661</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>39692</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>39753</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>39783</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B144" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B147" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B148" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B150" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B151" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B152" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B158" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B159" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B160" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B168" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B169" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B173" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B174" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B175" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B176" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B223" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B224" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B225" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B226" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B227" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B228" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B229" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
         <v>43466</v>
       </c>
-      <c r="B2" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B230" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
         <v>43497</v>
       </c>
-      <c r="B3" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B231" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
         <v>43525</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B232" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
         <v>43556</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B233" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
         <v>43586</v>
       </c>
-      <c r="B6" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B234" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
         <v>43617</v>
       </c>
-      <c r="B7" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B235" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
         <v>43647</v>
       </c>
-      <c r="B8" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B236" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
         <v>43678</v>
       </c>
-      <c r="B9" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B237" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
         <v>43709</v>
       </c>
-      <c r="B10" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B238" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
         <v>43739</v>
       </c>
-      <c r="B11" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B239" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="2">
         <v>43770</v>
       </c>
-      <c r="B12" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B240" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="2">
         <v>43800</v>
       </c>
-      <c r="B13" s="1">
-        <v>3.5743849999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B241" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
         <v>43831</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B242" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="2">
         <v>43862</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B243" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="2">
         <v>43891</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B244" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="2">
         <v>43922</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B245" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="2">
         <v>43952</v>
       </c>
-      <c r="B18" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B246" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="2">
         <v>43983</v>
       </c>
-      <c r="B19" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B247" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="2">
         <v>44013</v>
       </c>
-      <c r="B20" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B248" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="2">
         <v>44044</v>
       </c>
-      <c r="B21" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="B249" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="2">
         <v>44075</v>
       </c>
-      <c r="B22" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="B250" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="2">
         <v>44105</v>
       </c>
-      <c r="B23" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="B251" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="2">
         <v>44136</v>
       </c>
-      <c r="B24" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="B252" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="2">
         <v>44166</v>
       </c>
-      <c r="B25" s="1">
-        <v>2.7072569999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="B253" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="2">
         <v>44197</v>
       </c>
-      <c r="B26" s="1">
-        <v>4.2904499999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="B254" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="2">
         <v>44228</v>
       </c>
-      <c r="B27" s="1">
-        <v>4.2904499999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="B255" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
         <v>44256</v>
       </c>
-      <c r="B28" s="1">
-        <v>4.2904499999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="B256" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
         <v>44287</v>
       </c>
-      <c r="B29" s="1">
-        <v>4.2904499999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="B257" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
         <v>44317</v>
       </c>
-      <c r="B30" s="1">
-        <v>4.2904499999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="B258" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="2">
         <v>44348</v>
       </c>
-      <c r="B31" s="1">
-        <v>4.2904499999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="B259" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="2">
         <v>44378</v>
       </c>
-      <c r="B32" s="1">
-        <v>4.2904499999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="B260" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="2">
         <v>44409</v>
       </c>
-      <c r="B33" s="1">
-        <v>4.4705209999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="B261" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="2">
         <v>44440</v>
       </c>
-      <c r="B34" s="1">
-        <v>4.6142409999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="B262" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="2">
         <v>44470</v>
       </c>
-      <c r="B35" s="1">
-        <v>5.2248419999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="B263" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="2">
         <v>44501</v>
       </c>
-      <c r="B36" s="1">
-        <v>5.85168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="B264" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="2">
         <v>44531</v>
       </c>
-      <c r="B37" s="1">
-        <v>6.145003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="B265" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="2">
         <v>44562</v>
       </c>
-      <c r="B38" s="1">
-        <v>6.4861240000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="B266" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="2">
         <v>44593</v>
       </c>
-      <c r="B39" s="1">
-        <v>6.8016949999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="B267" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="2">
         <v>44621</v>
       </c>
-      <c r="B40" s="1">
-        <v>7.9005089999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="B268" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="2">
         <v>44652</v>
       </c>
-      <c r="B41" s="1">
-        <v>8.5182369999999992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="B269" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="2">
         <v>44682</v>
       </c>
-      <c r="B42" s="1">
-        <v>8.8554359999999992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="B270" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="2">
         <v>44713</v>
       </c>
-      <c r="B43" s="1">
-        <v>9.2493960000000008</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="B271" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="2">
         <v>44743</v>
+      </c>
+      <c r="B272">
+        <f>B271+_xlfn.STDEV.S(B269:B271)</f>
+        <v>9.5511884584284239</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataFeeds/G20CPI.xlsx
+++ b/DataFeeds/G20CPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426A389-6281-4E59-9511-814DF7ED4DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C3948-DA8C-4E6B-B1C8-959983C731D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90752A97-661D-4E4E-BE3E-871DC26D7446}">
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2594,8 +2594,16 @@
         <v>44743</v>
       </c>
       <c r="B272">
-        <f>B271+_xlfn.STDEV.S(B269:B271)</f>
-        <v>9.5511884584284239</v>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B273">
+        <f>B272+_xlfn.STDEV.S(B270:B272)</f>
+        <v>9.3732050807568861</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/G20CPI.xlsx
+++ b/DataFeeds/G20CPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C3948-DA8C-4E6B-B1C8-959983C731D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D584E6C0-C909-449B-BDA0-8483E59874D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
+    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90752A97-661D-4E4E-BE3E-871DC26D7446}">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+      <selection activeCell="B273" sqref="B273:B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2606,6 +2606,15 @@
         <v>9.3732050807568861</v>
       </c>
     </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B274">
+        <f>B273+_xlfn.STDEV.S(B271:B273)</f>
+        <v>9.4732050807568857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataFeeds/G20CPI.xlsx
+++ b/DataFeeds/G20CPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D584E6C0-C909-449B-BDA0-8483E59874D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1E3B0-3233-4AC1-82B4-7952F63E0F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +74,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,12 +96,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90752A97-661D-4E4E-BE3E-871DC26D7446}">
-  <dimension ref="A1:B274"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273:B274"/>
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2598,21 +2606,48 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="2">
+      <c r="A273" s="3">
         <v>44774</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="4">
         <f>B272+_xlfn.STDEV.S(B270:B272)</f>
         <v>9.3732050807568861</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="2">
+      <c r="A274" s="3">
         <v>44805</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="4">
         <f>B273+_xlfn.STDEV.S(B271:B273)</f>
         <v>9.4732050807568857</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B275" s="4">
+        <f t="shared" ref="B275:B277" si="0">B274+_xlfn.STDEV.S(B272:B274)</f>
+        <v>9.6114325600264916</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="3">
+        <v>44866</v>
+      </c>
+      <c r="B276" s="4">
+        <f t="shared" si="0"/>
+        <v>9.7310563925908955</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B277" s="4">
+        <f t="shared" si="0"/>
+        <v>9.8600938524989559</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/G20CPI.xlsx
+++ b/DataFeeds/G20CPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1E3B0-3233-4AC1-82B4-7952F63E0F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB0EF3D-0288-4744-8233-A9387717345A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{6862B7BE-461E-4BEA-AE24-2891F046E2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,13 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -103,7 +110,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,18 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90752A97-661D-4E4E-BE3E-871DC26D7446}">
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -437,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
@@ -445,7 +452,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36557</v>
       </c>
@@ -453,7 +460,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36586</v>
       </c>
@@ -461,7 +468,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36617</v>
       </c>
@@ -469,7 +476,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36647</v>
       </c>
@@ -477,7 +484,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36678</v>
       </c>
@@ -485,7 +492,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>36708</v>
       </c>
@@ -493,7 +500,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>36739</v>
       </c>
@@ -501,7 +508,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>36770</v>
       </c>
@@ -509,7 +516,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>36800</v>
       </c>
@@ -517,7 +524,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>36831</v>
       </c>
@@ -525,7 +532,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>36861</v>
       </c>
@@ -533,7 +540,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>36892</v>
       </c>
@@ -541,7 +548,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>36923</v>
       </c>
@@ -549,7 +556,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>36951</v>
       </c>
@@ -557,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>36982</v>
       </c>
@@ -565,7 +572,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>37012</v>
       </c>
@@ -573,7 +580,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>37043</v>
       </c>
@@ -581,7 +588,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>37073</v>
       </c>
@@ -589,7 +596,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>37104</v>
       </c>
@@ -597,7 +604,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>37135</v>
       </c>
@@ -605,7 +612,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>37165</v>
       </c>
@@ -613,7 +620,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>37196</v>
       </c>
@@ -621,7 +628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>37226</v>
       </c>
@@ -629,7 +636,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>37257</v>
       </c>
@@ -637,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>37288</v>
       </c>
@@ -645,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>37316</v>
       </c>
@@ -653,7 +660,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>37347</v>
       </c>
@@ -661,7 +668,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>37377</v>
       </c>
@@ -669,7 +676,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>37408</v>
       </c>
@@ -677,7 +684,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>37438</v>
       </c>
@@ -685,7 +692,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>37469</v>
       </c>
@@ -693,7 +700,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>37500</v>
       </c>
@@ -701,7 +708,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>37530</v>
       </c>
@@ -709,7 +716,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>37561</v>
       </c>
@@ -717,7 +724,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37591</v>
       </c>
@@ -725,7 +732,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37622</v>
       </c>
@@ -733,7 +740,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37653</v>
       </c>
@@ -741,7 +748,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>37681</v>
       </c>
@@ -749,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37712</v>
       </c>
@@ -757,7 +764,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>37742</v>
       </c>
@@ -765,7 +772,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>37773</v>
       </c>
@@ -773,7 +780,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>37803</v>
       </c>
@@ -781,7 +788,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>37834</v>
       </c>
@@ -789,7 +796,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>37865</v>
       </c>
@@ -797,7 +804,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>37895</v>
       </c>
@@ -805,7 +812,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>37926</v>
       </c>
@@ -813,7 +820,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>37956</v>
       </c>
@@ -821,7 +828,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>37987</v>
       </c>
@@ -829,7 +836,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>38018</v>
       </c>
@@ -837,7 +844,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>38047</v>
       </c>
@@ -845,7 +852,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>38078</v>
       </c>
@@ -853,7 +860,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>38108</v>
       </c>
@@ -861,7 +868,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>38139</v>
       </c>
@@ -869,7 +876,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>38169</v>
       </c>
@@ -877,7 +884,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>38200</v>
       </c>
@@ -885,7 +892,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>38231</v>
       </c>
@@ -893,7 +900,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>38261</v>
       </c>
@@ -901,7 +908,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>38292</v>
       </c>
@@ -909,7 +916,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>38322</v>
       </c>
@@ -917,7 +924,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>38353</v>
       </c>
@@ -925,7 +932,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>38384</v>
       </c>
@@ -933,7 +940,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>38412</v>
       </c>
@@ -941,7 +948,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>38443</v>
       </c>
@@ -949,7 +956,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>38473</v>
       </c>
@@ -957,7 +964,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>38504</v>
       </c>
@@ -965,7 +972,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>38534</v>
       </c>
@@ -973,7 +980,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>38565</v>
       </c>
@@ -981,7 +988,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>38596</v>
       </c>
@@ -989,7 +996,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>38626</v>
       </c>
@@ -997,7 +1004,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>38657</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>38687</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>38718</v>
       </c>
@@ -1021,7 +1028,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>38749</v>
       </c>
@@ -1029,7 +1036,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>38777</v>
       </c>
@@ -1037,7 +1044,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>38808</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>38838</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>38869</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>38899</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>38930</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>38961</v>
       </c>
@@ -1085,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>38991</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>39022</v>
       </c>
@@ -1101,7 +1108,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>39052</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>39083</v>
       </c>
@@ -1117,7 +1124,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>39114</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>39142</v>
       </c>
@@ -1133,7 +1140,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>39173</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>39203</v>
       </c>
@@ -1149,7 +1156,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>39234</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>39264</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>39295</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>39326</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>39356</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>39387</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>39417</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>39448</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>39479</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>39508</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>39539</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>39569</v>
       </c>
@@ -1245,7 +1252,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>39600</v>
       </c>
@@ -1253,7 +1260,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>39630</v>
       </c>
@@ -1261,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>39661</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>39692</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>39722</v>
       </c>
@@ -1285,7 +1292,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>39753</v>
       </c>
@@ -1293,7 +1300,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>39783</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>39814</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>39845</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>39873</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>39904</v>
       </c>
@@ -1333,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>39934</v>
       </c>
@@ -1341,7 +1348,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>39965</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>39995</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>40026</v>
       </c>
@@ -1365,7 +1372,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>40057</v>
       </c>
@@ -1373,7 +1380,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>40087</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>40118</v>
       </c>
@@ -1389,7 +1396,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>40148</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>40179</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>40210</v>
       </c>
@@ -1413,7 +1420,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>40238</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>40269</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>40299</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>40330</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>40360</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>40391</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>40422</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>40452</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>40483</v>
       </c>
@@ -1485,7 +1492,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>40513</v>
       </c>
@@ -1493,7 +1500,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>40544</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>40575</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>40603</v>
       </c>
@@ -1517,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>40634</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>40664</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>40695</v>
       </c>
@@ -1541,7 +1548,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>40725</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>40756</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>40787</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>40817</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>40848</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>40878</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>40909</v>
       </c>
@@ -1597,7 +1604,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>40940</v>
       </c>
@@ -1605,7 +1612,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>40969</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>41000</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>41030</v>
       </c>
@@ -1629,7 +1636,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>41061</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>41091</v>
       </c>
@@ -1645,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>41122</v>
       </c>
@@ -1653,7 +1660,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>41153</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>41183</v>
       </c>
@@ -1669,7 +1676,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>41214</v>
       </c>
@@ -1677,7 +1684,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>41244</v>
       </c>
@@ -1685,7 +1692,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>41275</v>
       </c>
@@ -1693,7 +1700,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>41306</v>
       </c>
@@ -1701,7 +1708,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>41334</v>
       </c>
@@ -1709,7 +1716,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>41365</v>
       </c>
@@ -1717,7 +1724,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>41395</v>
       </c>
@@ -1725,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>41426</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>41456</v>
       </c>
@@ -1741,7 +1748,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>41487</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>41518</v>
       </c>
@@ -1757,7 +1764,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>41548</v>
       </c>
@@ -1765,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>41579</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>41609</v>
       </c>
@@ -1781,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>41640</v>
       </c>
@@ -1789,7 +1796,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>41671</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>41699</v>
       </c>
@@ -1805,7 +1812,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>41730</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>41760</v>
       </c>
@@ -1821,7 +1828,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>41791</v>
       </c>
@@ -1829,7 +1836,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>41821</v>
       </c>
@@ -1837,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>41852</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>41883</v>
       </c>
@@ -1853,7 +1860,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>41913</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>41944</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>41974</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>42005</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>42036</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>42064</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>42095</v>
       </c>
@@ -1909,7 +1916,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>42125</v>
       </c>
@@ -1917,7 +1924,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>42156</v>
       </c>
@@ -1925,7 +1932,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>42186</v>
       </c>
@@ -1933,7 +1940,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>42217</v>
       </c>
@@ -1941,7 +1948,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>42248</v>
       </c>
@@ -1949,7 +1956,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>42278</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>42309</v>
       </c>
@@ -1965,7 +1972,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>42339</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>42370</v>
       </c>
@@ -1981,7 +1988,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>42401</v>
       </c>
@@ -1989,7 +1996,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>42430</v>
       </c>
@@ -1997,7 +2004,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>42461</v>
       </c>
@@ -2005,7 +2012,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>42491</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>42522</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>42552</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>42583</v>
       </c>
@@ -2037,7 +2044,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>42614</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>42644</v>
       </c>
@@ -2053,7 +2060,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>42675</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>42705</v>
       </c>
@@ -2069,7 +2076,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>42736</v>
       </c>
@@ -2077,7 +2084,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>42767</v>
       </c>
@@ -2085,7 +2092,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>42795</v>
       </c>
@@ -2093,7 +2100,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>42826</v>
       </c>
@@ -2101,7 +2108,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>42856</v>
       </c>
@@ -2109,7 +2116,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>42887</v>
       </c>
@@ -2117,7 +2124,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>42917</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>42948</v>
       </c>
@@ -2133,7 +2140,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>42979</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>43009</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>43040</v>
       </c>
@@ -2157,7 +2164,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>43070</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>43101</v>
       </c>
@@ -2173,7 +2180,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>43132</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>43160</v>
       </c>
@@ -2189,7 +2196,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>43191</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>43221</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>43252</v>
       </c>
@@ -2213,7 +2220,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>43282</v>
       </c>
@@ -2221,7 +2228,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>43313</v>
       </c>
@@ -2229,7 +2236,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>43344</v>
       </c>
@@ -2237,7 +2244,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>43374</v>
       </c>
@@ -2245,7 +2252,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>43405</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>43435</v>
       </c>
@@ -2261,7 +2268,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>43466</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>43497</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>43525</v>
       </c>
@@ -2285,7 +2292,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>43556</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>43586</v>
       </c>
@@ -2301,7 +2308,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>43617</v>
       </c>
@@ -2309,7 +2316,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>43647</v>
       </c>
@@ -2317,7 +2324,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>43678</v>
       </c>
@@ -2325,7 +2332,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>43709</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>43739</v>
       </c>
@@ -2341,7 +2348,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>43770</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>43800</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>43831</v>
       </c>
@@ -2365,7 +2372,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>43862</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>43891</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>43922</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>43952</v>
       </c>
@@ -2397,7 +2404,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>43983</v>
       </c>
@@ -2405,7 +2412,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44013</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44044</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44075</v>
       </c>
@@ -2429,7 +2436,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>44105</v>
       </c>
@@ -2437,7 +2444,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>44136</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>44166</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44197</v>
       </c>
@@ -2461,7 +2468,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>44228</v>
       </c>
@@ -2469,7 +2476,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>44256</v>
       </c>
@@ -2477,7 +2484,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>44287</v>
       </c>
@@ -2485,7 +2492,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44317</v>
       </c>
@@ -2493,7 +2500,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>44348</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>44378</v>
       </c>
@@ -2509,7 +2516,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>44409</v>
       </c>
@@ -2517,7 +2524,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>44440</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>44470</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44501</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>44531</v>
       </c>
@@ -2549,7 +2556,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>44562</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>44593</v>
       </c>
@@ -2565,7 +2572,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>44621</v>
       </c>
@@ -2573,7 +2580,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>44652</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>44682</v>
       </c>
@@ -2589,7 +2596,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>44713</v>
       </c>
@@ -2597,7 +2604,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>44743</v>
       </c>
@@ -2605,49 +2612,157 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>44774</v>
       </c>
       <c r="B273" s="4">
-        <f>B272+_xlfn.STDEV.S(B270:B272)</f>
-        <v>9.3732050807568861</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+        <f>_xlfn.FORECAST.LINEAR(A273,B247:B272,A247:A272)</f>
+        <v>8.891938845104562</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>44805</v>
       </c>
       <c r="B274" s="4">
-        <f>B273+_xlfn.STDEV.S(B271:B273)</f>
-        <v>9.4732050807568857</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+        <f>_xlfn.FORECAST.LINEAR(A274,B248:B273,A248:A273)</f>
+        <v>9.3194788935530255</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>44835</v>
       </c>
       <c r="B275" s="4">
-        <f t="shared" ref="B275:B277" si="0">B274+_xlfn.STDEV.S(B272:B274)</f>
-        <v>9.6114325600264916</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B275:B277" si="0">_xlfn.FORECAST.LINEAR(A275,B249:B274,A249:A274)</f>
+        <v>9.7508618122534472</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>44866</v>
       </c>
       <c r="B276" s="4">
         <f t="shared" si="0"/>
-        <v>9.7310563925908955</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10.20515946524381</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>44896</v>
       </c>
       <c r="B277" s="4">
         <f t="shared" si="0"/>
-        <v>9.8600938524989559</v>
+        <v>10.641687280724739</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B278" s="4">
+        <f>B276</f>
+        <v>10.20515946524381</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B279" s="4">
+        <f>B275</f>
+        <v>9.7508618122534472</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B280">
+        <f>B274</f>
+        <v>9.3194788935530255</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B281">
+        <f>B273</f>
+        <v>8.891938845104562</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B282">
+        <f>B272</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B283">
+        <f>B270</f>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B284">
+        <f>B268</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B285">
+        <f>B267</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B286">
+        <f>B268</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B287">
+        <f>B269</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B288">
+        <f>B270</f>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B289">
+        <f>B268</f>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
